--- a/downloaded_files/PPSS481_Tutorial-35868.xlsx
+++ b/downloaded_files/PPSS481_Tutorial-35868.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed mahmoud Hozayn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان رضا شعبان اسماعيل ابوزهره</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Reda Shaaban Esmaiel Abu-Zahra</x:t>
   </x:si>
   <x:si>
     <x:t>1210080</x:t>
@@ -191,7 +200,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -491,7 +500,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T6"/>
+  <x:dimension ref="A1:T7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -500,7 +509,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="26.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="36.370625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="37.820625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -710,7 +719,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4153913194</x:v>
+        <x:v>45927.5745700579</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -727,6 +736,38 @@
       <x:c r="R6" s="2" t="s"/>
       <x:c r="S6" s="2" t="s"/>
       <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45909.4153913194</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
